--- a/biology/Botanique/Vigna_aconitifolia/Vigna_aconitifolia.xlsx
+++ b/biology/Botanique/Vigna_aconitifolia/Vigna_aconitifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vigna aconitifolia, le haricot mat ou haricot papillon, est une espèce de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire de l'Asie du Sud.
 Ce sont des plantes herbacées, annuelles, résistantes à la sécheresse, aux petites fleurs jaunes et aux feuilles profondément lobées. L'espèce est cultivée dans les régions arides de l'Asie méridionale pour ses graines comestibles en forme de haricots, dont la couleur varie du brun clair au brun rougeâtre foncé.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (29 décembre 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (29 décembre 2018) :
 Dolichos dissectus Lam.
 Phaseolus aconitifolius Jacq.
 Phaseolus palmatus Forssk.
